--- a/project/01. machine learning/자료/[공공] 저출산.xlsx
+++ b/project/01. machine learning/자료/[공공] 저출산.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\conda\project\01. machine learning\자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D8F65A-09FD-43C5-891E-3F284D8C336A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF13582-B3D6-47AD-B6F6-02235A330130}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{207832C5-ABB7-477A-BD6D-15D0C5FAF8F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{207832C5-ABB7-477A-BD6D-15D0C5FAF8F2}"/>
   </bookViews>
   <sheets>
     <sheet name="역할분배" sheetId="1" r:id="rId1"/>
@@ -927,12 +927,121 @@
         </r>
       </text>
     </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{14D6C4CF-E4DF-4192-A5ED-2C02F1DD5525}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>학교급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>및</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시도별</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사교육</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>참여율</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://kosis.kr/statHtml/statHtml.do?orgId=101&amp;tblId=DT_1PE107&amp;vw_cd=MT_ZTITLE&amp;list_id=H1_10_004_001&amp;seqNo=&amp;lang_mode=ko&amp;language=kor&amp;obj_var_id=&amp;itm_id=&amp;conn_path=MT_ZTITLE</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="133">
   <si>
     <t>커뮤니케이터</t>
   </si>
@@ -1472,6 +1581,10 @@
   </si>
   <si>
     <t>fill_between, plot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시도별 사교육 참여율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1724,7 +1837,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2130,6 +2243,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2139,7 +2265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2302,6 +2428,36 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2314,59 +2470,35 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3142,10 +3274,10 @@
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="27" t="s">
         <v>20</v>
       </c>
@@ -3260,10 +3392,10 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="27" t="s">
         <v>20</v>
       </c>
@@ -3374,10 +3506,10 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="27" t="s">
         <v>20</v>
       </c>
@@ -3640,26 +3772,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4"/>
@@ -3689,18 +3821,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F50EE73-CCD1-4578-9404-8AADD1A0378D}">
-  <dimension ref="B2:K8"/>
+  <dimension ref="B2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="41" customWidth="1"/>
     <col min="2" max="2" width="35" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.625" style="58" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="58" customWidth="1"/>
+    <col min="3" max="4" width="6.625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="54" customWidth="1"/>
     <col min="6" max="6" width="16.375" style="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="41" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="41" customWidth="1"/>
@@ -3711,46 +3843,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="66" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61" t="s">
+      <c r="G2" s="70"/>
+      <c r="H2" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="71">
+      <c r="K2" s="59">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
-      <c r="J3" s="72" t="s">
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="69"/>
+      <c r="J3" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="73">
+      <c r="K3" s="61">
         <v>45.6</v>
       </c>
     </row>
@@ -3776,10 +3908,10 @@
       <c r="H4" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="63">
         <v>18.5</v>
       </c>
     </row>
@@ -3805,10 +3937,10 @@
       <c r="H5" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="K5" s="75">
+      <c r="K5" s="63">
         <v>27.2</v>
       </c>
     </row>
@@ -3830,10 +3962,10 @@
       <c r="H6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="K6" s="73">
+      <c r="K6" s="61">
         <v>54.4</v>
       </c>
     </row>
@@ -3857,37 +3989,52 @@
       <c r="H7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="75">
+      <c r="K7" s="63">
         <v>41.2</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="74" t="s">
+      <c r="J8" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="63">
         <v>13.2</v>
       </c>
+    </row>
+    <row r="9" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4048,47 +4195,47 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="56" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="57" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="56" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="57" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="57" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="57" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="57" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="56" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="57" t="s">
         <v>118</v>
       </c>
     </row>

--- a/project/01. machine learning/자료/[공공] 저출산.xlsx
+++ b/project/01. machine learning/자료/[공공] 저출산.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\conda\project\01. machine learning\자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF13582-B3D6-47AD-B6F6-02235A330130}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510101BA-94D6-4144-80F8-A13C38812A2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{207832C5-ABB7-477A-BD6D-15D0C5FAF8F2}"/>
+    <workbookView xWindow="25620" yWindow="2040" windowWidth="25125" windowHeight="13680" firstSheet="2" activeTab="8" xr2:uid="{207832C5-ABB7-477A-BD6D-15D0C5FAF8F2}"/>
   </bookViews>
   <sheets>
     <sheet name="역할분배" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="현상파악 및 목표 설정" sheetId="5" r:id="rId5"/>
     <sheet name="분석계획수립" sheetId="6" r:id="rId6"/>
     <sheet name="시나리오 참고 자료" sheetId="7" r:id="rId7"/>
+    <sheet name="사교육참여율" sheetId="9" r:id="rId8"/>
+    <sheet name="인터넷이용률" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1041,7 +1043,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="158">
   <si>
     <t>커뮤니케이터</t>
   </si>
@@ -1517,74 +1519,178 @@
     <t>포인트 컬러</t>
   </si>
   <si>
+    <t>4. 딥 그린: #27AE60 (안전과 성장의 상징)</t>
+  </si>
+  <si>
+    <t>1. 메인 컬러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 서브 컬러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 라이트 그레이: #BDC3C7 (밝고 부드러운 느낌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대도시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중소도시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>읍면지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대도시이외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사교육 참여율 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영역, 라인차트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fill_between, plot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시도별 사교육 참여율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 사용의 증가로 개인적인 여가 활동과 소비 문화가 확산되고, 자기개발이 중시하게 되면서 결혼과 출산을 미루거나 포기하는 경우가 늘어나고 있다.</t>
+  </si>
+  <si>
+    <t>인터넷이용률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국 사회는 급진적으로 전통적인 만남보다는 인터넷과 소셜 미디어등을 통한 소통이 가파르게 증가해 왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대면 소통과 몰입감을 중시하는 문화생활을 통해 오프라인 활동 촉진 솔루션 제시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 줄 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사교육참여율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국 학생들은 과열된 교육열에 치여 죽는다는 말이 나올 지경으로 압박 경쟁 속에서 살아가고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 내가 부모가 될 입장에서 청소년들의 현 시점을 보고, 과연 내가 자녀를 가진다면 그 자녀가 행복 할 수 있을지를 고민해 본다면 출산은 절대 미친짓이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>다크 그레이: #34495E (심각함과 중립성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 레드: #C0392B (경고와 중요성을 강조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2. 미드 나이브 블루: #2980B9 (신뢰감과 안정성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이로 인해 우리는 인터넷이용률이 저출산과 음의 상관관계를 가지고 있다는 추측이 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이를 해결하는 방안으로는 개인적인 활동보다는 오프라인 활동을 통해 다양한 사람과 접하면 서로의 의견을 공유하는 재미를 제공하는걸 솔루션으로 제안할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프를 보면 알 수 있듯이 10대 학생 자살률 그 중에서도 중,고등학생은
+2000년대에 들어서면서 세계 10대 청소년들의 자살률에 비해 빠르게 증가하고
+있음을 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 분석한 사교육참여율과 합계출산율은 두드러진 지역별 차이 보이고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책도시 세종은 제외로 보겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저출산이 가장 심한 서울과 타 지역 대비 높은 전남을 비교해 보면 확연한 사교육참여율을 볼 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 우리는 과연 어떻게 "출산을 해도 내 자녀가 불행하지 않을거다."라는 확신을 줄 수 있을 것인가에 대해 생각해 봤다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남은 왜 사교육참여율이 낮으면서 출산율이 타 지역에 비해 높을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 이유는 뉴스를 조금만 검색해 봐도 알 수 있는데, 지방자치단체의 노력이 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 뻔한 얘기 일 수 있는 공교육 강화와 다양한 학습 지원이 답이였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공교육 강화는 학생 중심의 진로·진학교육 실현 방안과 교사 진학지도 역량 강화를 시행하고 있었고,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 외 학업중단예방 및 대안교육 및 청소년의 건강, 안전, 안정을 위해 다양한 복지 정책 제공하고 있으며,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소년 프로그램 등을 통해 자신의 목소리를 내도록 장려등 다양한 활동의 기회를 제공하고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리하자면, 우리는 청소년의 전반적인 삶의 질 향상이 저출산을 완화 시킬 수 있다는 것을 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출산이 자녀가 될 생명에게 죄책감의 무게가 아닌 행복을 누릴 수 있는 기회로 전환 될 수 있도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 지역이 전남의 사례를 기반으로 더 공교육 강화와 교육 복지 정책을 개선해 나가야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인구소멸이라는 최악의 시나리오를 막을 수 있을 것이다.</t>
   </si>
   <si>
     <t>3. 차콜 블루: #2C3E50 (무게감과 깊이)</t>
-  </si>
-  <si>
-    <t>4. 딥 그린: #27AE60 (안전과 성장의 상징)</t>
-  </si>
-  <si>
-    <t>다크 레드: #C0392B (경고와 중요성을 강조)</t>
-  </si>
-  <si>
-    <t>1. 메인 컬러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 서브 컬러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPT Color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 라이트 그레이: #BDC3C7 (밝고 부드러운 느낌)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대도시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광역시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중소도시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>읍면지역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대도시이외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사교육 참여율 평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영역, 라인차트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fill_between, plot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시도별 사교육 참여율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2265,7 +2371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2458,6 +2564,21 @@
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2492,12 +2613,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2796,6 +2911,105 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4782216</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E098619-EDFB-4B60-A159-ABEC14AD6677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="1257300"/>
+          <a:ext cx="4772691" cy="4296375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1781175</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49DBFD0-CBDD-4147-ABF2-1719B709B107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="6334125"/>
+          <a:ext cx="6619875" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3172,7 +3386,7 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3274,10 +3488,10 @@
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="27" t="s">
         <v>20</v>
       </c>
@@ -3392,10 +3606,10 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="27" t="s">
         <v>20</v>
       </c>
@@ -3506,10 +3720,10 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="27" t="s">
         <v>20</v>
       </c>
@@ -3772,26 +3986,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4"/>
@@ -3823,7 +4037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F50EE73-CCD1-4578-9404-8AADD1A0378D}">
   <dimension ref="B2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -3843,44 +4057,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="73" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="68" t="s">
+      <c r="G2" s="75"/>
+      <c r="H2" s="73" t="s">
         <v>79</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K2" s="59">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="72"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="69"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="74"/>
       <c r="J3" s="60" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K3" s="61">
         <v>45.6</v>
@@ -3909,7 +4123,7 @@
         <v>94</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K4" s="63">
         <v>18.5</v>
@@ -3938,7 +4152,7 @@
         <v>94</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K5" s="63">
         <v>27.2</v>
@@ -3963,7 +4177,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="60" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K6" s="61">
         <v>54.4</v>
@@ -3990,7 +4204,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K7" s="63">
         <v>41.2</v>
@@ -4006,35 +4220,35 @@
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
       <c r="F8" s="35" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>5</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K8" s="63">
         <v>13.2</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="77" t="s">
+      <c r="B9" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77" t="s">
+      <c r="D9" s="65"/>
+      <c r="E9" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="77"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4055,8 +4269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B86818-622F-4114-A888-E2663F370BA8}">
   <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4186,57 +4400,318 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="45"/>
-    </row>
     <row r="22" spans="2:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B22" s="46" t="s">
-        <v>121</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D22" s="46"/>
     </row>
     <row r="24" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B24" s="56" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="57" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B27" s="56" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="57" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="57" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="57" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="D31" s="66"/>
+    </row>
+    <row r="33" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B33" s="56" t="s">
         <v>113</v>
       </c>
     </row>
+    <row r="34" spans="2:4" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B34" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="46"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13DB4EB-D1FD-4D12-90C3-B23B937E6353}">
+  <dimension ref="B2:C55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="29"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="2:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="29"/>
+      <c r="C7" s="68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="29"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="29"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="29"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="29"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="29"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="29"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="29"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="29"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="29"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="29"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="29"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="29"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="29"/>
+    </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="57" t="s">
-        <v>118</v>
+      <c r="B34" s="29"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C030B93-CA3D-416F-9B96-0D5F9D6C5844}">
+  <dimension ref="B2:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="153.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="29"/>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="29"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="29"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/project/01. machine learning/자료/[공공] 저출산.xlsx
+++ b/project/01. machine learning/자료/[공공] 저출산.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\conda\project\01. machine learning\자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510101BA-94D6-4144-80F8-A13C38812A2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80F4228-38D4-4C79-A950-C3B9A2350077}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25620" yWindow="2040" windowWidth="25125" windowHeight="13680" firstSheet="2" activeTab="8" xr2:uid="{207832C5-ABB7-477A-BD6D-15D0C5FAF8F2}"/>
+    <workbookView xWindow="25620" yWindow="2040" windowWidth="25125" windowHeight="13680" firstSheet="2" activeTab="9" xr2:uid="{207832C5-ABB7-477A-BD6D-15D0C5FAF8F2}"/>
   </bookViews>
   <sheets>
     <sheet name="역할분배" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="시나리오 참고 자료" sheetId="7" r:id="rId7"/>
     <sheet name="사교육참여율" sheetId="9" r:id="rId8"/>
     <sheet name="인터넷이용률" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1043,7 +1044,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="168">
   <si>
     <t>커뮤니케이터</t>
   </si>
@@ -1691,6 +1692,46 @@
   </si>
   <si>
     <t>3. 차콜 블루: #2C3E50 (무게감과 깊이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000대 들어서면서 문제를 인식하고 정부의 예산 143조를 쏟아 부었음에도 저출산을 넘어 초저출산으로 곤두박질 치고 있기 때문이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한민국의 저출산은 심각한 사회 문제로 해결해야할 대표 과제다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인주의적인 생활 양식, 경제적 불안정, 높은 주거비용, 과도한 경쟁 등의 원인으로 결혼과 출산을 기피하고 있기 때문이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 노력을 하고 있다는데, 왜 개선 되고 있지 않는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회의 구조적인 문제들이 해결되지 않기 때문이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 궁극적으로 무엇을 개선해야 된다고 생각하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민의 삶의 질을 향상 시켜야 된다고 생각한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선 대표적으로 개인주의적인 생활 양식, 경제적 불안정, 높은 주거비용, 과도한 경쟁을 해소하는 시나리오로 접근하고자 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민의 삶의 질은 향상 시킬 수 있는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3381,6 +3422,80 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5FFB73-887B-4452-93F4-CC47E1C3C132}">
+  <dimension ref="B2:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="125.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F575AA-CFB5-4D81-96E2-255894F7582D}">
   <dimension ref="B2:C7"/>
@@ -4656,8 +4771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C030B93-CA3D-416F-9B96-0D5F9D6C5844}">
   <dimension ref="B2:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
